--- a/Statystyki_2018/Template/oopr.xlsx
+++ b/Statystyki_2018/Template/oopr.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz2" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -68,6 +68,7 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -77,22 +78,13 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
       <t xml:space="preserve">- wszystkie kategorie spraw
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">(bez czasu trwania mediacji, zgodnie z dz. 2.1.1.1 MS-S16r)</t>
+(łącznie z czasem trwania mediacji, zgodnie z dz. 2.1.1. MS-S16r)</t>
     </r>
   </si>
   <si>
@@ -100,6 +92,7 @@
       <rPr>
         <b val="true"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
@@ -110,88 +103,115 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(wszystkie kategorie spraw, </t>
+      <t xml:space="preserve">(wszystkie kategorie spraw, łącznie z czasem trwania mediacji, zgodnie z MS-S16r)</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">bez czasu trwania mediacji, zgodnie z MS-S16r</t>
+      <t xml:space="preserve">terminowość sporządzania uzasadnień </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t xml:space="preserve">na wniosek
+</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">terminowość sporządzonych uzasadnień </t>
-  </si>
-  <si>
-    <t xml:space="preserve">skargi na przewlekłość</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UWAGI</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">od dnia doręczenia sędziemu wniosku do sporządzenia uzasadnienia
+      <t xml:space="preserve">przez sędziów i referendarzy sądowych 
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(zgodnie z MS-S16r, dz. 1.4.2) *</t>
+      <t xml:space="preserve">(zgodnie z MS-S16r, dz. 1.4.1.a + 1.4.1.c) *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">od dnia wpływu wniosku do właściwego sądu 
+      <t xml:space="preserve">terminowość sporządzania uzasadnień </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <u val="single"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">z urzędu
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
+        <b val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t xml:space="preserve">(zgodnie z MS-S16r, dz. 1.4.1) **</t>
+      <t xml:space="preserve"> przez sędziów i referendarzy sądowych 
+</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">(zgodnie z MS-S16r, dz. 1.4.1.b + 1.4.1.d) *</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">skargi na przewlekłość</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWAGI</t>
   </si>
   <si>
     <t xml:space="preserve">Ogółem</t>
@@ -291,7 +311,7 @@
     <t xml:space="preserve">po upływie terminu ustawowego</t>
   </si>
   <si>
-    <t xml:space="preserve">Uzasadnienia wygłoszone ***</t>
+    <t xml:space="preserve">Uzasadnienia wygłoszone **/***</t>
   </si>
   <si>
     <t xml:space="preserve">Liczba spraw, do których wpłynął wniosek o transkrypcje uzasadnień wygłoszonych</t>
@@ -355,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -499,68 +519,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b val="true"/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -614,7 +620,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF800000"/>
       </patternFill>
     </fill>
     <fill>
@@ -776,6 +782,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -784,91 +794,87 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,13 +909,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF996600"/>
@@ -963,423 +969,449 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:CJ6"/>
+  <dimension ref="A2:CY6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BV1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CD1" activeCellId="0" sqref="CD:CD"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="191" zoomScaleNormal="191" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CE2" activeCellId="0" sqref="CE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="81" style="0" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="69.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="101" style="1" width="40.34"/>
   </cols>
   <sheetData>
-    <row r="2" s="6" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2" t="s">
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2" t="s">
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2" t="s">
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="3" t="s">
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="2" t="s">
+      <c r="BR2" s="4"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
+      <c r="BU2" s="4"/>
+      <c r="BV2" s="4"/>
+      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="4"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
+      <c r="CB2" s="4"/>
+      <c r="CC2" s="4"/>
+      <c r="CD2" s="4"/>
+      <c r="CE2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="4" t="s">
+      <c r="CF2" s="4"/>
+      <c r="CG2" s="4"/>
+      <c r="CH2" s="4"/>
+      <c r="CI2" s="4"/>
+      <c r="CJ2" s="4"/>
+      <c r="CK2" s="4"/>
+      <c r="CL2" s="4"/>
+      <c r="CM2" s="4"/>
+      <c r="CN2" s="4"/>
+      <c r="CO2" s="4"/>
+      <c r="CP2" s="4"/>
+      <c r="CQ2" s="4"/>
+      <c r="CR2" s="4"/>
+      <c r="CS2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="CJ2" s="5"/>
+      <c r="CT2" s="3"/>
+      <c r="CU2" s="3"/>
+      <c r="CV2" s="3"/>
+      <c r="CW2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="7"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="65.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="7" t="s">
+    <row r="3" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="BR3" s="4"/>
+      <c r="BS3" s="4"/>
+      <c r="BT3" s="4"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+      <c r="BZ3" s="4"/>
+      <c r="CA3" s="4"/>
+      <c r="CB3" s="4"/>
+      <c r="CC3" s="4"/>
+      <c r="CD3" s="4"/>
+      <c r="CE3" s="4"/>
+      <c r="CF3" s="4"/>
+      <c r="CG3" s="4"/>
+      <c r="CH3" s="4"/>
+      <c r="CI3" s="4"/>
+      <c r="CJ3" s="4"/>
+      <c r="CK3" s="4"/>
+      <c r="CL3" s="4"/>
+      <c r="CM3" s="4"/>
+      <c r="CN3" s="4"/>
+      <c r="CO3" s="4"/>
+      <c r="CP3" s="4"/>
+      <c r="CQ3" s="4"/>
+      <c r="CR3" s="4"/>
+      <c r="CS3" s="3"/>
+      <c r="CT3" s="3"/>
+      <c r="CU3" s="3"/>
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="6"/>
+      <c r="CY3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="CD3" s="7"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="5"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T4" s="9"/>
       <c r="U4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X4" s="9"/>
       <c r="Y4" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AI4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AJ4" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="AK4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AL4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="AQ4" s="10" t="s">
+      <c r="AR4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="AR4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="AS4" s="11"/>
       <c r="AT4" s="11"/>
       <c r="AU4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="9" t="s">
+      <c r="AW4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AW4" s="9" t="s">
+      <c r="AX4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AX4" s="9" t="s">
+      <c r="AY4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AY4" s="9" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" s="9" t="s">
+      <c r="BA4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="BA4" s="9" t="s">
+      <c r="BB4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="BB4" s="9" t="s">
+      <c r="BC4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="BC4" s="9" t="s">
+      <c r="BD4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="BD4" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="BE4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BF4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="BG4" s="12" t="s">
+      <c r="BH4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="BH4" s="12" t="s">
+      <c r="BI4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="BI4" s="12" t="s">
+      <c r="BJ4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="BJ4" s="12" t="s">
+      <c r="BK4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="BK4" s="12" t="s">
+      <c r="BL4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="BL4" s="12" t="s">
+      <c r="BM4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="BM4" s="12" t="s">
+      <c r="BN4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="BN4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BO4" s="14" t="s">
+      <c r="BP4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="BP4" s="14" t="s">
+      <c r="BQ4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BQ4" s="15" t="s">
+      <c r="BR4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="BR4" s="16" t="s">
+      <c r="BS4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="BS4" s="16" t="s">
+      <c r="BT4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="BT4" s="17" t="s">
+      <c r="BU4" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="BU4" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="BV4" s="18"/>
       <c r="BW4" s="18"/>
@@ -1389,27 +1421,56 @@
       <c r="CA4" s="18"/>
       <c r="CB4" s="18"/>
       <c r="CC4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="CD4" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="CD4" s="19" t="s">
+      <c r="CE4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="CI4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="CJ4" s="18"/>
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="18"/>
+      <c r="CM4" s="18"/>
+      <c r="CN4" s="18"/>
+      <c r="CO4" s="18"/>
+      <c r="CP4" s="18"/>
+      <c r="CQ4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="CS4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="CE4" s="20" t="s">
+      <c r="CT4" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="CF4" s="21" t="s">
+      <c r="CU4" s="21"/>
+      <c r="CV4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="CG4" s="21"/>
-      <c r="CH4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="6"/>
+      <c r="CY4" s="7"/>
     </row>
-    <row r="5" s="6" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1421,64 +1482,64 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="O5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD5" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE5" s="22" t="s">
+      <c r="AF5" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="AF5" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="9"/>
@@ -1492,13 +1553,13 @@
       <c r="AP5" s="9"/>
       <c r="AQ5" s="10"/>
       <c r="AR5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AS5" s="23" t="s">
+      <c r="AT5" s="23" t="s">
         <v>52</v>
-      </c>
-      <c r="AT5" s="23" t="s">
-        <v>53</v>
       </c>
       <c r="AU5" s="8"/>
       <c r="AV5" s="9"/>
@@ -1536,20 +1597,35 @@
       <c r="CB5" s="18"/>
       <c r="CC5" s="19"/>
       <c r="CD5" s="19"/>
-      <c r="CE5" s="20"/>
-      <c r="CF5" s="24" t="s">
+      <c r="CE5" s="15"/>
+      <c r="CF5" s="16"/>
+      <c r="CG5" s="16"/>
+      <c r="CH5" s="17"/>
+      <c r="CI5" s="18"/>
+      <c r="CJ5" s="18"/>
+      <c r="CK5" s="18"/>
+      <c r="CL5" s="18"/>
+      <c r="CM5" s="18"/>
+      <c r="CN5" s="18"/>
+      <c r="CO5" s="18"/>
+      <c r="CP5" s="18"/>
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="19"/>
+      <c r="CS5" s="20"/>
+      <c r="CT5" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="CU5" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="CG5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="CH5" s="20"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="5"/>
+      <c r="CV5" s="20"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="6"/>
+      <c r="CY5" s="7"/>
     </row>
-    <row r="6" s="6" customFormat="true" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+    <row r="6" customFormat="false" ht="99.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1621,40 +1697,71 @@
       <c r="BS6" s="16"/>
       <c r="BT6" s="17"/>
       <c r="BU6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV6" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="BV6" s="20" t="s">
+      <c r="BW6" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="BW6" s="20" t="s">
+      <c r="BX6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BY6" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="BX6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="BY6" s="20" t="s">
+      <c r="BZ6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="BZ6" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="CA6" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="CB6" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="CC6" s="19"/>
       <c r="CD6" s="19"/>
-      <c r="CE6" s="20"/>
-      <c r="CF6" s="24"/>
-      <c r="CG6" s="24"/>
-      <c r="CH6" s="20"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="5"/>
+      <c r="CE6" s="15"/>
+      <c r="CF6" s="16"/>
+      <c r="CG6" s="16"/>
+      <c r="CH6" s="17"/>
+      <c r="CI6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="CJ6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="CK6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="CL6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="CM6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="CN6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="CO6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="CP6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="CQ6" s="19"/>
+      <c r="CR6" s="19"/>
+      <c r="CS6" s="20"/>
+      <c r="CT6" s="24"/>
+      <c r="CU6" s="24"/>
+      <c r="CV6" s="20"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="6"/>
+      <c r="CY6" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="109">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:L3"/>
@@ -1664,11 +1771,10 @@
     <mergeCell ref="AU2:BD3"/>
     <mergeCell ref="BE2:BM3"/>
     <mergeCell ref="BN2:BP3"/>
-    <mergeCell ref="BQ2:CD2"/>
-    <mergeCell ref="CE2:CH3"/>
-    <mergeCell ref="CI2:CI6"/>
-    <mergeCell ref="BQ3:CB3"/>
-    <mergeCell ref="CC3:CD3"/>
+    <mergeCell ref="BQ2:CD3"/>
+    <mergeCell ref="CE2:CR3"/>
+    <mergeCell ref="CS2:CV3"/>
+    <mergeCell ref="CW2:CW6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="E4:E6"/>
@@ -1731,8 +1837,15 @@
     <mergeCell ref="CC4:CC6"/>
     <mergeCell ref="CD4:CD6"/>
     <mergeCell ref="CE4:CE6"/>
-    <mergeCell ref="CF4:CG4"/>
+    <mergeCell ref="CF4:CF6"/>
+    <mergeCell ref="CG4:CG6"/>
     <mergeCell ref="CH4:CH6"/>
+    <mergeCell ref="CI4:CP5"/>
+    <mergeCell ref="CQ4:CQ6"/>
+    <mergeCell ref="CR4:CR6"/>
+    <mergeCell ref="CS4:CS6"/>
+    <mergeCell ref="CT4:CU4"/>
+    <mergeCell ref="CV4:CV6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
@@ -1756,15 +1869,15 @@
     <mergeCell ref="AR5:AR6"/>
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CT5:CT6"/>
+    <mergeCell ref="CU5:CU6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>